--- a/Eclair-Weekly-Report.xlsx
+++ b/Eclair-Weekly-Report.xlsx
@@ -1,42 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamez\source\repos\Eclair-Friends-App\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A4449-7F42-4B3C-99C8-94F8AA5657E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256A8124-ACC4-4929-986F-1AF413CBCCFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6DF3264-AFDE-4A69-903D-4227F6ACA101}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Week 1" sheetId="7" r:id="rId2"/>
     <sheet name="Week 2" sheetId="8" r:id="rId3"/>
+    <sheet name="Week 3" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Week 1'!$A$1:$A$27</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Week 2'!$A$1:$A$27</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
   <si>
     <t>Éclair Group Report</t>
   </si>
@@ -212,9 +208,6 @@
     <t>checking of overall progress</t>
   </si>
   <si>
-    <t>I'm trying to organize everything and also made the excel sheet with brexther</t>
-  </si>
-  <si>
     <t>I created the low fi for login</t>
   </si>
   <si>
@@ -237,6 +230,33 @@
   </si>
   <si>
     <t>JamesSampedro/Eclair-Friends-app (github.com)</t>
+  </si>
+  <si>
+    <t>I'm trying to organize everything and also made the excel sheet with brexter</t>
+  </si>
+  <si>
+    <t>I created the high fi for login</t>
+  </si>
+  <si>
+    <t>I created the high fi for register</t>
+  </si>
+  <si>
+    <t>Collaborated with Benedict and brexter for the Designs</t>
+  </si>
+  <si>
+    <t>I'm trying to organize everything and also made the excel sheet with Mathew</t>
+  </si>
+  <si>
+    <t>Created high fi for login</t>
+  </si>
+  <si>
+    <t>Created high fi for register</t>
+  </si>
+  <si>
+    <t>analyzing the codes</t>
+  </si>
+  <si>
+    <t>I'm trying to analyzed the codes that will be execute</t>
   </si>
   <si>
     <t>Eclair-Friends-App/login.png at master · JamesSampedro/Eclair-Friends-App (github.com)</t>
@@ -249,7 +269,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,27 +335,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="26"/>
-      <color theme="0"/>
-      <name val="Century Gothic"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="26"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="26"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="11">
@@ -453,7 +452,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2" applyAlignment="1">
@@ -504,11 +503,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34"/>
@@ -878,28 +872,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22511A33-248B-4E71-B7BB-B2D9BACC7B01}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.44140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.33203125" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -910,30 +904,30 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -942,7 +936,7 @@
       </c>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -968,7 +962,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -992,7 +986,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1010,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1040,7 +1034,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E12" s="12">
         <v>4</v>
       </c>
@@ -1061,7 +1055,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:11" ht="32.4" x14ac:dyDescent="0.7">
       <c r="A13" s="13" t="s">
         <v>8</v>
       </c>
@@ -1085,17 +1079,17 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="F16" s="8" t="s">
         <v>36</v>
@@ -1104,7 +1098,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1109,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="F18" s="5" t="s">
         <v>3</v>
@@ -1124,7 +1118,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="F20" s="5" t="s">
         <v>4</v>
@@ -1144,7 +1138,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1155,40 +1149,36 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="33.75" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="22"/>
-    </row>
-    <row r="24" spans="1:8" ht="33" x14ac:dyDescent="0.45">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -1196,7 +1186,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
@@ -1204,7 +1194,7 @@
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -1212,7 +1202,7 @@
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -1220,7 +1210,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
@@ -1228,7 +1218,7 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
@@ -1236,7 +1226,7 @@
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
@@ -1244,7 +1234,7 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
@@ -1252,7 +1242,7 @@
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
@@ -1260,7 +1250,7 @@
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -1268,7 +1258,7 @@
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
@@ -1276,7 +1266,7 @@
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
@@ -1284,7 +1274,7 @@
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
@@ -1292,7 +1282,7 @@
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
@@ -1307,33 +1297,33 @@
     <mergeCell ref="C7:D7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Friends-app" xr:uid="{05915438-2D67-4C12-A669-808B8B5E2398}"/>
+    <hyperlink ref="G23" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Friends-app" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
   <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708D7E34-82BD-4763-B43C-92EB7D97FF7E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="108.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="108.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -1353,7 +1343,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1371,7 +1361,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1379,7 +1369,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1387,7 +1377,7 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1395,48 +1385,48 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F8" s="14"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F11" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14" s="14"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F17" s="14"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="14"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A27" xr:uid="{4EAF4003-9632-4FA0-B4E6-BFCFCDFA9FAA}"/>
+  <autoFilter ref="A1:A27" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{93D577DF-3D97-4EA7-996A-EE29961166B2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"NEW,BUG FIX,IN-PROGRESS,DONE, ROUTINE, SCRAP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{B1DA78C2-DE08-4BBC-AB2C-8134D4CEC6B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"CODING, SUPERVISING, UI/UX, UI, UX, DIAGRAM MAKING, DRAFT MAKING, DOCUMENTATION, EXCEL, EXTRA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F27" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Fare-Matrix/blob/master/Draft/High%20Fidelity%20Draft%20(Admin)/homepage.png" xr:uid="{29BE8A17-5F7F-4C04-98E4-D550271E51F3}"/>
+    <hyperlink ref="F27" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Fare-Matrix/blob/master/Draft/High%20Fidelity%20Draft%20(Admin)/homepage.png" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1444,24 +1434,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA27DCF-9E27-4A71-A0DC-037E5FAC3076}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="108.5703125" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="108.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -1481,7 +1471,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1499,32 +1489,30 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>28</v>
@@ -1537,25 +1525,25 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1569,73 +1557,236 @@
         <v>54</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F10" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F15" s="14"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F23" s="14"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A27" xr:uid="{4EAF4003-9632-4FA0-B4E6-BFCFCDFA9FAA}"/>
+  <autoFilter ref="A1:A27" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{C9A8B7F8-18F2-46AD-9704-280EA9FD5338}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"CODING, SUPERVISING, UI/UX, UI, UX, DIAGRAM MAKING, DRAFT MAKING, DOCUMENTATION, EXCEL, EXTRA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{FFB156AF-BEB3-472F-AD0B-93DFF41F0E72}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0200-000001000000}">
       <formula1>"NEW,BUG FIX,IN-PROGRESS,DONE, ROUTINE, SCRAP"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F27" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Fare-Matrix/blob/master/Draft/High%20Fidelity%20Draft%20(Admin)/homepage.png" xr:uid="{DB7740E3-F0C4-47EA-A8F1-DBBFDE9B88B2}"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://github.com/JamesSampedro/Eclair-Friends-App/blob/master/Drafts/Low Fidelity/login.png" xr:uid="{84A5A33B-0EAA-488B-9B2A-26DB964ADB57}"/>
-    <hyperlink ref="F7" r:id="rId3" display="https://github.com/JamesSampedro/Eclair-Friends-App/blob/master/Drafts/Low Fidelity/register.png" xr:uid="{C7E72A44-0D83-4E79-A7AF-6D9B58548845}"/>
+    <hyperlink ref="F27" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Fare-Matrix/blob/master/Draft/High%20Fidelity%20Draft%20(Admin)/homepage.png" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39.5546875" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="108.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0300-000000000000}">
+      <formula1>"NEW,BUG FIX,IN-PROGRESS,DONE, ROUTINE, SCRAP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{00000000-0002-0000-0300-000001000000}">
+      <formula1>"CODING, SUPERVISING, UI/UX, UI, UX, DIAGRAM MAKING, DRAFT MAKING, DOCUMENTATION, EXCEL, EXTRA"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="F5" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Friends-App/blob/master/Drafts/High Fidelity/login.png" xr:uid="{60A90218-27FA-4FEE-B378-276306221AA7}"/>
+    <hyperlink ref="F7" r:id="rId2" display="https://github.com/JamesSampedro/Eclair-Friends-App/blob/master/Drafts/High Fidelity/register.png" xr:uid="{BCEDB341-4744-45EC-8886-7984B6B2E744}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Eclair-Weekly-Report.xlsx
+++ b/Eclair-Weekly-Report.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jamez\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ditchella\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256A8124-ACC4-4929-986F-1AF413CBCCFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Week 1" sheetId="7" r:id="rId2"/>
     <sheet name="Week 2" sheetId="8" r:id="rId3"/>
     <sheet name="Week 3" sheetId="9" r:id="rId4"/>
+    <sheet name="Week 4" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Week 1'!$A$1:$A$27</definedName>
@@ -27,12 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="85">
   <si>
     <t>Éclair Group Report</t>
   </si>
@@ -259,16 +264,40 @@
     <t>I'm trying to analyzed the codes that will be execute</t>
   </si>
   <si>
-    <t>Eclair-Friends-App/login.png at master · JamesSampedro/Eclair-Friends-App (github.com)</t>
-  </si>
-  <si>
-    <t>Eclair-Friends-App/register.png at master · JamesSampedro/Eclair-Friends-App (github.com)</t>
+    <t>I'm doing the API of the system</t>
+  </si>
+  <si>
+    <t>carried out the API</t>
+  </si>
+  <si>
+    <t>generating design concepts</t>
+  </si>
+  <si>
+    <t>Studying possible designs for the system</t>
+  </si>
+  <si>
+    <t>I'm trying to organize everything and also made the excel sheet</t>
+  </si>
+  <si>
+    <t>drafting the designs</t>
+  </si>
+  <si>
+    <t>drafting the ideas provided by mathew and benedict</t>
+  </si>
+  <si>
+    <t>unified the ideas</t>
+  </si>
+  <si>
+    <t>joint ideas with mathew in designing the system</t>
+  </si>
+  <si>
+    <t>DRAFT MAKING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,7 +572,7 @@
         <xdr:cNvPr id="1025" name="AutoShape 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31493AD2-2109-4258-ABE2-0E33C2D90FD0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{31493AD2-2109-4258-ABE2-0E33C2D90FD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,28 +901,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView topLeftCell="D4" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.44140625" style="1" customWidth="1"/>
-    <col min="2" max="4" width="9.109375" style="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="38.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="20.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" style="1"/>
+    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="38.7109375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="29.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="1" customWidth="1"/>
     <col min="11" max="11" width="28" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -904,30 +933,30 @@
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="16"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
     </row>
-    <row r="7" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -936,7 +965,7 @@
       </c>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>3</v>
       </c>
@@ -962,7 +991,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -986,7 +1015,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -1010,7 +1039,7 @@
       </c>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:11" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1063,7 @@
       </c>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E12" s="12">
         <v>4</v>
       </c>
@@ -1055,7 +1084,7 @@
       </c>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:11" ht="32.4" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:11" ht="33" x14ac:dyDescent="0.6">
       <c r="A13" s="13" t="s">
         <v>8</v>
       </c>
@@ -1079,17 +1108,17 @@
       </c>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="F16" s="8" t="s">
         <v>36</v>
@@ -1098,7 +1127,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -1109,7 +1138,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="F18" s="5" t="s">
         <v>3</v>
@@ -1118,7 +1147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>12</v>
       </c>
@@ -1129,7 +1158,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="F20" s="5" t="s">
         <v>4</v>
@@ -1138,7 +1167,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>13</v>
       </c>
@@ -1149,10 +1178,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>42</v>
       </c>
@@ -1163,22 +1192,22 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33"/>
       <c r="F33"/>
       <c r="G33"/>
@@ -1186,7 +1215,7 @@
       <c r="I33"/>
       <c r="J33"/>
     </row>
-    <row r="34" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
@@ -1194,7 +1223,7 @@
       <c r="I34"/>
       <c r="J34"/>
     </row>
-    <row r="35" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
@@ -1202,7 +1231,7 @@
       <c r="I35"/>
       <c r="J35"/>
     </row>
-    <row r="36" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
@@ -1210,7 +1239,7 @@
       <c r="I36"/>
       <c r="J36"/>
     </row>
-    <row r="37" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
@@ -1218,7 +1247,7 @@
       <c r="I37"/>
       <c r="J37"/>
     </row>
-    <row r="38" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
@@ -1226,7 +1255,7 @@
       <c r="I38"/>
       <c r="J38"/>
     </row>
-    <row r="39" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E39"/>
       <c r="F39"/>
       <c r="G39"/>
@@ -1234,7 +1263,7 @@
       <c r="I39"/>
       <c r="J39"/>
     </row>
-    <row r="40" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E40"/>
       <c r="F40"/>
       <c r="G40"/>
@@ -1242,7 +1271,7 @@
       <c r="I40"/>
       <c r="J40"/>
     </row>
-    <row r="41" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E41"/>
       <c r="F41"/>
       <c r="G41"/>
@@ -1250,7 +1279,7 @@
       <c r="I41"/>
       <c r="J41"/>
     </row>
-    <row r="42" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
@@ -1258,7 +1287,7 @@
       <c r="I42"/>
       <c r="J42"/>
     </row>
-    <row r="43" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
@@ -1266,7 +1295,7 @@
       <c r="I43"/>
       <c r="J43"/>
     </row>
-    <row r="44" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E44"/>
       <c r="F44"/>
       <c r="G44"/>
@@ -1274,7 +1303,7 @@
       <c r="I44"/>
       <c r="J44"/>
     </row>
-    <row r="45" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E45"/>
       <c r="F45"/>
       <c r="G45"/>
@@ -1282,7 +1311,7 @@
       <c r="I45"/>
       <c r="J45"/>
     </row>
-    <row r="46" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
@@ -1297,7 +1326,7 @@
     <mergeCell ref="C7:D7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G23" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Friends-app" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G23" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Friends-app"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1306,24 +1335,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="108.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="108.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -1343,7 +1372,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1390,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="15"/>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
@@ -1369,7 +1398,7 @@
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
@@ -1377,7 +1406,7 @@
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="15"/>
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
@@ -1385,48 +1414,48 @@
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F8" s="14"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F11" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="14"/>
     </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F17" s="14"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" s="14"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A27" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:A27"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E5">
       <formula1>"NEW,BUG FIX,IN-PROGRESS,DONE, ROUTINE, SCRAP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5">
       <formula1>"CODING, SUPERVISING, UI/UX, UI, UX, DIAGRAM MAKING, DRAFT MAKING, DOCUMENTATION, EXCEL, EXTRA"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F27" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Fare-Matrix/blob/master/Draft/High%20Fidelity%20Draft%20(Admin)/homepage.png" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F27" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Fare-Matrix/blob/master/Draft/High%20Fidelity%20Draft%20(Admin)/homepage.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1434,24 +1463,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="108.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="108.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -1471,7 +1500,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1489,7 +1518,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1507,7 +1536,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1525,7 +1554,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -1543,7 +1572,7 @@
       </c>
       <c r="F5" s="6"/>
     </row>
-    <row r="6" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1561,7 +1590,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1579,45 +1608,45 @@
       </c>
       <c r="F7" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F10" s="14"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F15" s="14"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F21" s="14"/>
     </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F23" s="14"/>
     </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F30" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A27" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
+  <autoFilter ref="A1:A27"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
       <formula1>"CODING, SUPERVISING, UI/UX, UI, UX, DIAGRAM MAKING, DRAFT MAKING, DOCUMENTATION, EXCEL, EXTRA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0200-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>"NEW,BUG FIX,IN-PROGRESS,DONE, ROUTINE, SCRAP"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F27" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Fare-Matrix/blob/master/Draft/High%20Fidelity%20Draft%20(Admin)/homepage.png" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F27" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Fare-Matrix/blob/master/Draft/High%20Fidelity%20Draft%20(Admin)/homepage.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
@@ -1625,24 +1654,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
-    <col min="2" max="2" width="39.5546875" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="108.5546875" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="108.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1691,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
@@ -1680,7 +1709,7 @@
       </c>
       <c r="F2" s="6"/>
     </row>
-    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
@@ -1698,7 +1727,7 @@
       </c>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
@@ -1716,7 +1745,7 @@
       </c>
       <c r="F4" s="6"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>51</v>
       </c>
@@ -1732,11 +1761,9 @@
       <c r="E5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>4</v>
       </c>
@@ -1754,7 +1781,7 @@
       </c>
       <c r="F6" s="6"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -1770,23 +1797,176 @@
       <c r="E7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>76</v>
-      </c>
+      <c r="F7" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
       <formula1>"NEW,BUG FIX,IN-PROGRESS,DONE, ROUTINE, SCRAP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{00000000-0002-0000-0300-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
       <formula1>"CODING, SUPERVISING, UI/UX, UI, UX, DIAGRAM MAKING, DRAFT MAKING, DOCUMENTATION, EXCEL, EXTRA"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="F5" r:id="rId1" display="https://github.com/JamesSampedro/Eclair-Friends-App/blob/master/Drafts/High Fidelity/login.png" xr:uid="{60A90218-27FA-4FEE-B378-276306221AA7}"/>
-    <hyperlink ref="F7" r:id="rId2" display="https://github.com/JamesSampedro/Eclair-Friends-App/blob/master/Drafts/High Fidelity/register.png" xr:uid="{BCEDB341-4744-45EC-8886-7984B6B2E744}"/>
-  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="108.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7">
+      <formula1>"CODING, SUPERVISING, UI/UX, UI, UX, DIAGRAM MAKING, DRAFT MAKING, DOCUMENTATION, EXCEL, EXTRA"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E7">
+      <formula1>"NEW,BUG FIX,IN-PROGRESS,DONE, ROUTINE, SCRAP"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>